--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T11:18:56+00:00</t>
+    <t>2023-06-02T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T14:16:37+00:00</t>
+    <t>2023-06-05T01:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-05T01:13:55+00:00</t>
+    <t>2023-06-05T03:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-05T03:42:33+00:00</t>
+    <t>2023-06-05T04:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-05T04:12:34+00:00</t>
+    <t>2023-06-05T11:12:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-05T11:12:49+00:00</t>
+    <t>2023-06-05T11:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-05T11:42:58+00:00</t>
+    <t>2023-06-05T13:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
